--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965471.84656887</v>
+        <v>962770.6299174131</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>232.01072298284</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>16.66197659284158</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47.44042178923158</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4052883607348</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.75392192072599</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897746</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154302</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>58.87622502851803</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.77682125736462</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.2548844787127</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713962</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698459</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488479</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>102.8923588781017</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643706</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>114.1460214218932</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>24.55276019063715</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>315.0892174321325</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>304.0065125199824</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>258.8309451071326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.53779970793369</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.795251606876121</v>
+        <v>193.9507379795599</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.5813113004301</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>148.118578636143</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>61.62152140683675</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>22.61263105777446</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605716242</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712581</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>137.7610225486944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>300.4385797407429</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
         <v>34.06092317356495</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>566.8162363079209</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
-        <v>566.8162363079209</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.6072292161182</v>
+        <v>197.1648447922847</v>
       </c>
       <c r="C3" t="n">
-        <v>419.1541999349912</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>419.1541999349912</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>259.9167449295357</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>113.3821869564207</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4419,13 +4419,13 @@
         <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>694.2029851278862</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4440,19 +4440,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>801.367527981072</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>801.367527981072</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>593.6072292161182</v>
+        <v>365.3801818123527</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2429270008669</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2429270008669</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2429270008669</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2429270008669</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008669</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4516,22 +4516,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>939.294622671949</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>672.9169661047711</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>418.2324778988842</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>418.2324778988842</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2429270008669</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2429270008669</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.0455633582847</v>
+        <v>1136.345205654766</v>
       </c>
       <c r="C5" t="n">
-        <v>749.0455633582847</v>
+        <v>816.5910675842869</v>
       </c>
       <c r="D5" t="n">
-        <v>749.0455633582847</v>
+        <v>816.5910675842869</v>
       </c>
       <c r="E5" t="n">
-        <v>363.2573107600405</v>
+        <v>430.8028149860426</v>
       </c>
       <c r="F5" t="n">
-        <v>356.311810010837</v>
+        <v>43.23945355631515</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797562</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
-        <v>239.032598924555</v>
+        <v>239.0325989245557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825614</v>
+        <v>456.1499114825625</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748839</v>
+        <v>729.4041931748848</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202377</v>
+        <v>1011.693823202378</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798409</v>
+        <v>1264.91665479841</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189405</v>
+        <v>1446.535482189407</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261719</v>
+        <v>1389.996673518248</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261719</v>
+        <v>1389.996673518248</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261719</v>
+        <v>1136.345205654766</v>
       </c>
       <c r="V5" t="n">
-        <v>1475.279976889479</v>
+        <v>1136.345205654766</v>
       </c>
       <c r="W5" t="n">
-        <v>1122.511321619364</v>
+        <v>1136.345205654766</v>
       </c>
       <c r="X5" t="n">
-        <v>749.0455633582847</v>
+        <v>1136.345205654766</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.0455633582847</v>
+        <v>1136.345205654766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.25550759767145</v>
+        <v>264.6115818588757</v>
       </c>
       <c r="C6" t="n">
-        <v>61.25550759767145</v>
+        <v>264.6115818588757</v>
       </c>
       <c r="D6" t="n">
-        <v>61.25550759767145</v>
+        <v>264.6115818588757</v>
       </c>
       <c r="E6" t="n">
-        <v>61.25550759767145</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="F6" t="n">
-        <v>61.25550759767145</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="G6" t="n">
-        <v>61.25550759767145</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="H6" t="n">
-        <v>61.25550759767145</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563387</v>
+        <v>49.44206107563399</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101409</v>
+        <v>159.6385680169441</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414923</v>
+        <v>354.1339118482956</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122375</v>
+        <v>600.4576725190411</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584459</v>
+        <v>889.05451872597</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749977</v>
+        <v>1111.317965891488</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948665</v>
+        <v>1270.370911090176</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261719</v>
+        <v>1530.346686757969</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655814</v>
+        <v>1385.878273152064</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207498</v>
+        <v>1189.973630703749</v>
       </c>
       <c r="U6" t="n">
-        <v>966.2567715281025</v>
+        <v>961.8525470243528</v>
       </c>
       <c r="V6" t="n">
-        <v>731.1046632963598</v>
+        <v>726.7004387926102</v>
       </c>
       <c r="W6" t="n">
-        <v>476.8673065681582</v>
+        <v>472.4630820644085</v>
       </c>
       <c r="X6" t="n">
-        <v>269.0158063626254</v>
+        <v>264.6115818588757</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.25550759767145</v>
+        <v>264.6115818588757</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406.5271931753792</v>
+        <v>236.9104562721259</v>
       </c>
       <c r="C7" t="n">
-        <v>406.5271931753792</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>406.5271931753792</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>406.5271931753792</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>302.5955175409331</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>302.5955175409331</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274379</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709671</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223264</v>
+        <v>157.4322756223265</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830383</v>
+        <v>375.1387655830384</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388143</v>
+        <v>615.0688576388145</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974811</v>
+        <v>854.7285647974815</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.07679889167</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
         <v>1212.26700593402</v>
@@ -4747,28 +4747,28 @@
         <v>1234.200536495182</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402739</v>
+        <v>1113.86649040274</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402739</v>
+        <v>910.3578444371287</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792834</v>
+        <v>685.6925863136734</v>
       </c>
       <c r="U7" t="n">
-        <v>889.2012322792834</v>
+        <v>685.6925863136734</v>
       </c>
       <c r="V7" t="n">
-        <v>634.5167440733966</v>
+        <v>685.6925863136734</v>
       </c>
       <c r="W7" t="n">
-        <v>634.5167440733966</v>
+        <v>685.6925863136734</v>
       </c>
       <c r="X7" t="n">
-        <v>406.5271931753792</v>
+        <v>457.703035415656</v>
       </c>
       <c r="Y7" t="n">
-        <v>406.5271931753792</v>
+        <v>236.9104562721259</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2322.34110938936</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1991.278222045789</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1638.509566775675</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.509566775675</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1611.645352205167</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.96086399928</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.543693962319</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.490329133578</v>
+        <v>1485.490329133573</v>
       </c>
       <c r="C11" t="n">
-        <v>1485.490329133578</v>
+        <v>1116.527812193162</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.218392333444</v>
+        <v>1116.527812193162</v>
       </c>
       <c r="E11" t="n">
-        <v>781.4301397351999</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>370.4442349455923</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455923</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592084</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592084</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
         <v>695.1615405656967</v>
@@ -5048,43 +5048,43 @@
         <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484045</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535299</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464066</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796042</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345383</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926747</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048276</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704706</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434591</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173511</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.0901691977</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390855</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592084</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046661</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626181</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019147</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.0566881811108</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>781.1205052532039</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>631.0038658408681</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>483.090772258475</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605646</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592084</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758651</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648149</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344816</v>
+        <v>710.5788654344811</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925585</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458881</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.627619458881</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1868.627619458881</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.943131252994</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.497732154881</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>1352.497732154881</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>1131.70515301135</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5446,7 +5446,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>720.3848083708509</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>175.8744207939072</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939072</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2337.284991357604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.608299724742</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.923811518855</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,13 +6069,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2297.348357685166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2077.746892708107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1788.671666052305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1533.987177846418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.570007809457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188004</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,61 +6452,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,16 +6552,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851669</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>527.77225215726</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>527.77225215726</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>379.859158574867</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>379.859158574867</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154066</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,13 +6725,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6743,7 +6743,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675715</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675715</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
         <v>343.0994656851784</v>
@@ -6847,13 +6847,13 @@
         <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851665</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572596</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154062</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,25 +7573,25 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121644</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121644</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,7 +7825,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544048</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45.78351343583188</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.4393943863704</v>
+        <v>34.43939438637031</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.6378772658556</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000695</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111059</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184736</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.59382418855046</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.9238575522794</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>27.69205322945839</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>208.1718556811035</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7894017452187</v>
+        <v>24.63391537253486</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.44497470121448</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>32.90770736550155</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>103.9026168854321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>144.6341900408534</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038646</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>10.85445046951796</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295032</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>887036.3646744364</v>
+        <v>887036.3646744359</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731676</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>976505.1911731677</v>
+        <v>976505.1911731678</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>976505.1911731677</v>
+        <v>976505.1911731676</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.0843509181</v>
+        <v>402924.0843509179</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
         <v>443930.6298295032</v>
       </c>
       <c r="H2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="I2" t="n">
         <v>443930.6298295033</v>
-      </c>
-      <c r="I2" t="n">
-        <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="L2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="N2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="O2" t="n">
         <v>443930.6298295033</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>443930.6298295032</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="P2" t="n">
-        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657055</v>
+        <v>132804.219065706</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929391</v>
+        <v>265413.0723929386</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545785</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770428</v>
+        <v>189308.2687704288</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417383</v>
+        <v>30877.42926417401</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049606</v>
+        <v>65018.3450204958</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273112</v>
+        <v>81897.40371273094</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320233</v>
+        <v>49839.57413202355</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>211562.7951796039</v>
+        <v>211562.7951796037</v>
       </c>
       <c r="D4" t="n">
         <v>135522.1369769832</v>
@@ -26433,31 +26433,31 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744299</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744268</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744324</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744324</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744304</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.2563917443</v>
+        <v>8727.256391744297</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667482</v>
+        <v>72593.65038667487</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738577</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-539211.3774124925</v>
       </c>
       <c r="C6" t="n">
-        <v>34612.30879337151</v>
+        <v>34612.30879337115</v>
       </c>
       <c r="D6" t="n">
-        <v>-42300.00838441108</v>
+        <v>-42300.00838441084</v>
       </c>
       <c r="E6" t="n">
-        <v>-4412.395903143944</v>
+        <v>-4633.527217117935</v>
       </c>
       <c r="F6" t="n">
-        <v>144772.5748434238</v>
+        <v>144737.8369179874</v>
       </c>
       <c r="G6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884163</v>
       </c>
       <c r="H6" t="n">
-        <v>334080.8436138519</v>
+        <v>334046.1056884161</v>
       </c>
       <c r="I6" t="n">
-        <v>334080.8436138519</v>
+        <v>334046.1056884162</v>
       </c>
       <c r="J6" t="n">
-        <v>265081.6891947379</v>
+        <v>265046.9512693023</v>
       </c>
       <c r="K6" t="n">
-        <v>303203.4143496782</v>
+        <v>303168.6764242421</v>
       </c>
       <c r="L6" t="n">
-        <v>269062.4985933558</v>
+        <v>269027.7606679204</v>
       </c>
       <c r="M6" t="n">
-        <v>252183.4399011207</v>
+        <v>252148.7019756855</v>
       </c>
       <c r="N6" t="n">
-        <v>284241.2694818287</v>
+        <v>284206.5315563927</v>
       </c>
       <c r="O6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884162</v>
       </c>
       <c r="P6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884161</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695736</v>
+        <v>717.3319511695739</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154298</v>
+        <v>383.6877278154302</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490104</v>
+        <v>969.2208239490094</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000953</v>
+        <v>103.2769374000957</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479655</v>
+        <v>216.7329409479652</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974122</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846091</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506379</v>
+        <v>203.487464150639</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139234</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846093</v>
+        <v>256.8971042846083</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506379</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846091</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506379</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>117.230245734573</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>156.0465223954742</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>88.58229779719187</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>108.8090575188311</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>208.769076415865</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.716295081233</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.18831792628123</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863711</v>
+        <v>99.30025118863705</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660377</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>268.8760334416169</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>61.86825919803633</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>97.33388804333229</v>
       </c>
       <c r="I6" t="n">
-        <v>6.018580290804703</v>
+        <v>36.27346476951737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258714005</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.64345343374305</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>42.52868914482956</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643664</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>136.8992287065688</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>261.6743939305634</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365118</v>
+        <v>2.883746537365119</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579052</v>
+        <v>29.53316922579053</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817688</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756929</v>
+        <v>244.754382675693</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023584</v>
+        <v>366.8233736023586</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952462</v>
+        <v>455.0768316952464</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791131</v>
+        <v>506.3606591791133</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284018</v>
+        <v>514.554104028402</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974774</v>
+        <v>485.8788493974776</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562759</v>
+        <v>414.6863567562762</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868876</v>
+        <v>311.4121838868877</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277617</v>
+        <v>181.1461434277618</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020768</v>
+        <v>65.71337422020771</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731581</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892094</v>
+        <v>0.2306997229892095</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,46 +31358,46 @@
         <v>1.542940423270404</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316416</v>
+        <v>14.90155619316417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189767</v>
+        <v>53.1231680818977</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862621</v>
+        <v>145.7740335862622</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453792</v>
+        <v>249.1510419453793</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438655</v>
+        <v>335.0143230438657</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874175</v>
+        <v>390.9459133874178</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189108</v>
+        <v>401.293088418911</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348666</v>
+        <v>367.1047769348668</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190651</v>
+        <v>294.6339480190652</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739554</v>
+        <v>196.9549915739555</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392913</v>
+        <v>95.79765189392917</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399191</v>
+        <v>28.65944163399192</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989037</v>
+        <v>6.21913267098904</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730529</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.293549420141854</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5008302990794</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572049</v>
+        <v>38.90055892572051</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402907</v>
+        <v>91.45394400402911</v>
       </c>
       <c r="K7" t="n">
         <v>150.2869235401172</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545444</v>
+        <v>192.3155201545445</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773271</v>
+        <v>202.7697513773272</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022531</v>
+        <v>197.9483399022532</v>
       </c>
       <c r="O7" t="n">
         <v>182.8373307669596</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960656</v>
+        <v>156.4489225960657</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266056</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565098</v>
+        <v>58.162685745651</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101757</v>
+        <v>22.54303853101758</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060647</v>
+        <v>5.526983886060649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864665</v>
+        <v>0.07055724109864669</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193139</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4162185798837</v>
+        <v>267.5398078833321</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>650.5350891770654</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32312,19 +32312,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>209.7242506524599</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32789,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7833302198383</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34787,16 +34787,16 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>217.43861174566</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.7084781490066</v>
+        <v>63.70847814900671</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573779</v>
+        <v>146.733522557378</v>
       </c>
       <c r="L5" t="n">
-        <v>219.310416725259</v>
+        <v>219.3104167252592</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518404</v>
+        <v>276.0144259518406</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318108</v>
+        <v>285.1410404318111</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757907</v>
+        <v>255.7806379757909</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010064</v>
+        <v>183.4533610010066</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243811</v>
+        <v>89.10649401243822</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959544</v>
+        <v>18.93640691959553</v>
       </c>
       <c r="K6" t="n">
-        <v>342.9474802368758</v>
+        <v>111.3096029710203</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639913</v>
+        <v>196.4599432639915</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653992</v>
+        <v>248.8118794653994</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355775</v>
+        <v>291.5119658655847</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904222</v>
+        <v>224.5085324904223</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047348</v>
+        <v>160.659540604735</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793388</v>
+        <v>267.050505223783</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142343</v>
+        <v>128.0174317142344</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148605</v>
+        <v>219.9055454148606</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391677</v>
+        <v>242.3536283391678</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814817</v>
+        <v>242.0805122814818</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809992</v>
+        <v>207.4224586809993</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609591</v>
+        <v>153.7274818609592</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491122</v>
+        <v>22.15508137491128</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420058</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526472</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601301</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0745064965504</v>
+        <v>136.1980957999988</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>519.1933770937321</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>82.88662398579324</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>23.94570355317166</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
